--- a/docs/Office UI Help Files/powerpointcontrols.xlsx
+++ b/docs/Office UI Help Files/powerpointcontrols.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12225"/>
+    <workbookView windowWidth="30000" windowHeight="16070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="powerpointcontrols" sheetId="1" r:id="rId1"/>
+    <sheet name="wps ppt" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18630" uniqueCount="1527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20474" uniqueCount="1856">
   <si>
     <t>Control Name</t>
   </si>
@@ -4608,6 +4609,1022 @@
   </si>
   <si>
     <t>ObjectSizeAndPropertiesDialog</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>演示</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>idMso</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参考</t>
+    </r>
+  </si>
+  <si>
+    <t>https://open.wps.cn/previous/docs/client/wpsLoad</t>
+  </si>
+  <si>
+    <t>控件名称</t>
+  </si>
+  <si>
+    <t>控件类型</t>
+  </si>
+  <si>
+    <t>所属Tab</t>
+  </si>
+  <si>
+    <t>功能描述</t>
+  </si>
+  <si>
+    <t>TabAnimation</t>
+  </si>
+  <si>
+    <t>动画</t>
+  </si>
+  <si>
+    <t>动画窗格</t>
+  </si>
+  <si>
+    <t>开始播放:</t>
+  </si>
+  <si>
+    <t>editBox</t>
+  </si>
+  <si>
+    <t>TabAudioTool</t>
+  </si>
+  <si>
+    <t>淡入</t>
+  </si>
+  <si>
+    <t>淡出</t>
+  </si>
+  <si>
+    <t>页停止</t>
+  </si>
+  <si>
+    <t>自动</t>
+  </si>
+  <si>
+    <t>页面设置</t>
+  </si>
+  <si>
+    <t>GroupPageSetup</t>
+  </si>
+  <si>
+    <t>幻灯片大小</t>
+  </si>
+  <si>
+    <t>Magic</t>
+  </si>
+  <si>
+    <t>魔法</t>
+  </si>
+  <si>
+    <t>ImportTemplates</t>
+  </si>
+  <si>
+    <t>导入模板</t>
+  </si>
+  <si>
+    <t>InvolvedTemplate</t>
+  </si>
+  <si>
+    <t>本文模板</t>
+  </si>
+  <si>
+    <t>DesignSlideMaster</t>
+  </si>
+  <si>
+    <t>编辑母版</t>
+  </si>
+  <si>
+    <t>设计模板</t>
+  </si>
+  <si>
+    <t>OnlineTemplate</t>
+  </si>
+  <si>
+    <t>更多设计</t>
+  </si>
+  <si>
+    <t>ResetSlide</t>
+  </si>
+  <si>
+    <t>重置</t>
+  </si>
+  <si>
+    <t>TabDesignTable</t>
+  </si>
+  <si>
+    <t>其他填充颜色</t>
+  </si>
+  <si>
+    <t>渐变</t>
+  </si>
+  <si>
+    <t>纹理</t>
+  </si>
+  <si>
+    <t>笔样式</t>
+  </si>
+  <si>
+    <t>笔划粗细</t>
+  </si>
+  <si>
+    <t>填充</t>
+  </si>
+  <si>
+    <t>ClearMenu</t>
+  </si>
+  <si>
+    <t>清除表格样式</t>
+  </si>
+  <si>
+    <t>TabDevelopTools</t>
+  </si>
+  <si>
+    <t>WPS 宏编辑器</t>
+  </si>
+  <si>
+    <t>AddInsDialog</t>
+  </si>
+  <si>
+    <t>加载项</t>
+  </si>
+  <si>
+    <t>COM 加载项</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>其他控件</t>
+  </si>
+  <si>
+    <t>控件列表</t>
+  </si>
+  <si>
+    <t>控件属性</t>
+  </si>
+  <si>
+    <t>TabDrawingTool</t>
+  </si>
+  <si>
+    <t>编辑顶点</t>
+  </si>
+  <si>
+    <t>FontColorMoreColorsDialogExcel</t>
+  </si>
+  <si>
+    <t>其他字体颜色</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>上移一层</t>
+  </si>
+  <si>
+    <t>下移一层</t>
+  </si>
+  <si>
+    <t>横向分布</t>
+  </si>
+  <si>
+    <t>纵向分布</t>
+  </si>
+  <si>
+    <t>组合</t>
+  </si>
+  <si>
+    <t>ObjectsUnGroup</t>
+  </si>
+  <si>
+    <t>取消组合</t>
+  </si>
+  <si>
+    <t>向左旋转 90°</t>
+  </si>
+  <si>
+    <t>大小</t>
+  </si>
+  <si>
+    <t>加粗</t>
+  </si>
+  <si>
+    <t>下划线</t>
+  </si>
+  <si>
+    <t>阴影</t>
+  </si>
+  <si>
+    <t>上标</t>
+  </si>
+  <si>
+    <t>下标</t>
+  </si>
+  <si>
+    <t>增大字号</t>
+  </si>
+  <si>
+    <t>减小字号</t>
+  </si>
+  <si>
+    <t>Bullets</t>
+  </si>
+  <si>
+    <t>项目符号</t>
+  </si>
+  <si>
+    <t>字体</t>
+  </si>
+  <si>
+    <t>字号</t>
+  </si>
+  <si>
+    <t>Numbering</t>
+  </si>
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>IndentDecreaseExcel</t>
+  </si>
+  <si>
+    <t>减少缩进量</t>
+  </si>
+  <si>
+    <t>IndentIncreaseExcel</t>
+  </si>
+  <si>
+    <t>增加缩进量</t>
+  </si>
+  <si>
+    <t>分散对齐</t>
+  </si>
+  <si>
+    <t>增大段落行距</t>
+  </si>
+  <si>
+    <t>ParagraphMarks</t>
+  </si>
+  <si>
+    <t>TabDrawingTool_Vml</t>
+  </si>
+  <si>
+    <t>高度</t>
+  </si>
+  <si>
+    <t>宽度</t>
+  </si>
+  <si>
+    <t>TabEquationTools</t>
+  </si>
+  <si>
+    <t>公式选项</t>
+  </si>
+  <si>
+    <t>公式</t>
+  </si>
+  <si>
+    <t>专业型</t>
+  </si>
+  <si>
+    <t>线性</t>
+  </si>
+  <si>
+    <t>普通文本</t>
+  </si>
+  <si>
+    <t>公式符号</t>
+  </si>
+  <si>
+    <t>分数</t>
+  </si>
+  <si>
+    <t>上下标</t>
+  </si>
+  <si>
+    <t>根式</t>
+  </si>
+  <si>
+    <t>积分</t>
+  </si>
+  <si>
+    <t>大型运算符</t>
+  </si>
+  <si>
+    <t>括号</t>
+  </si>
+  <si>
+    <t>函数</t>
+  </si>
+  <si>
+    <t>导数符号</t>
+  </si>
+  <si>
+    <t>极限和对数</t>
+  </si>
+  <si>
+    <t>运算符</t>
+  </si>
+  <si>
+    <t>矩阵</t>
+  </si>
+  <si>
+    <t>FileSaveAsPicture</t>
+  </si>
+  <si>
+    <t>TabFile</t>
+  </si>
+  <si>
+    <t>输出为图片</t>
+  </si>
+  <si>
+    <t>FileNewMenu</t>
+  </si>
+  <si>
+    <t>新建</t>
+  </si>
+  <si>
+    <t>FileNewFromTemplate</t>
+  </si>
+  <si>
+    <t>本机上的模板</t>
+  </si>
+  <si>
+    <t>FileNewFromDefaultTemplate</t>
+  </si>
+  <si>
+    <t>从默认模板新建</t>
+  </si>
+  <si>
+    <t>另存为</t>
+  </si>
+  <si>
+    <t>FileSaveAsDps</t>
+  </si>
+  <si>
+    <t>WPS 演示 文件（*.dps）</t>
+  </si>
+  <si>
+    <t>FileSaveAsDpt</t>
+  </si>
+  <si>
+    <t>WPS 演示 模板文件（*.dpt）</t>
+  </si>
+  <si>
+    <t>FileSaveAsPpt</t>
+  </si>
+  <si>
+    <t>PowerPoint 97-2003 文件（*.ppt）</t>
+  </si>
+  <si>
+    <t>FileSaveAsPot</t>
+  </si>
+  <si>
+    <t>PowerPoint 97-2003 模板文件（*.pot）</t>
+  </si>
+  <si>
+    <t>FileSaveAsPps</t>
+  </si>
+  <si>
+    <t>PowerPoint 97-2003 放映文件（*.pps）</t>
+  </si>
+  <si>
+    <t>其他格式</t>
+  </si>
+  <si>
+    <t>FileMenuPackageMenu</t>
+  </si>
+  <si>
+    <t>文件打包</t>
+  </si>
+  <si>
+    <t>FilePackageIntoFolder</t>
+  </si>
+  <si>
+    <t>将演示文档打包成文件夹</t>
+  </si>
+  <si>
+    <t>FilePackageIntoZip</t>
+  </si>
+  <si>
+    <t>将演示文档打包成压缩文件</t>
+  </si>
+  <si>
+    <t>打印</t>
+  </si>
+  <si>
+    <t>打印预览</t>
+  </si>
+  <si>
+    <t>FileInfoMenu</t>
+  </si>
+  <si>
+    <t>文档加密</t>
+  </si>
+  <si>
+    <t>属性</t>
+  </si>
+  <si>
+    <t>备份与恢复</t>
+  </si>
+  <si>
+    <t>FileBackupManagement</t>
+  </si>
+  <si>
+    <t>备份管理</t>
+  </si>
+  <si>
+    <t>FileBackupHistory</t>
+  </si>
+  <si>
+    <t>历史版本</t>
+  </si>
+  <si>
+    <t>FileHelp</t>
+  </si>
+  <si>
+    <t>帮助</t>
+  </si>
+  <si>
+    <t>WPS 演示 帮助</t>
+  </si>
+  <si>
+    <t>关于 WPS 演示</t>
+  </si>
+  <si>
+    <t>保存</t>
+  </si>
+  <si>
+    <t>打开</t>
+  </si>
+  <si>
+    <t>输出为PDF</t>
+  </si>
+  <si>
+    <t>FileShare</t>
+  </si>
+  <si>
+    <t>分享文档</t>
+  </si>
+  <si>
+    <t>FileMenuSendMail</t>
+  </si>
+  <si>
+    <t>发送邮件</t>
+  </si>
+  <si>
+    <t>选项</t>
+  </si>
+  <si>
+    <t>TabGraphicTool</t>
+  </si>
+  <si>
+    <t>重设形状和大小</t>
+  </si>
+  <si>
+    <t>带格式粘贴</t>
+  </si>
+  <si>
+    <t>只粘贴文本</t>
+  </si>
+  <si>
+    <t>选择性粘贴</t>
+  </si>
+  <si>
+    <t>剪切</t>
+  </si>
+  <si>
+    <t>复制</t>
+  </si>
+  <si>
+    <t>格式刷</t>
+  </si>
+  <si>
+    <t>剪贴板</t>
+  </si>
+  <si>
+    <t>粘贴</t>
+  </si>
+  <si>
+    <t>从头开始</t>
+  </si>
+  <si>
+    <t>当页开始</t>
+  </si>
+  <si>
+    <t>新建幻灯片</t>
+  </si>
+  <si>
+    <t>倾斜</t>
+  </si>
+  <si>
+    <t>TextHighlightColorPicker</t>
+  </si>
+  <si>
+    <t>突出显示</t>
+  </si>
+  <si>
+    <t>ClearFormats</t>
+  </si>
+  <si>
+    <t>清除所有格式</t>
+  </si>
+  <si>
+    <t>打包成文件夹</t>
+  </si>
+  <si>
+    <t>置于顶层</t>
+  </si>
+  <si>
+    <t>置于底层</t>
+  </si>
+  <si>
+    <t>ObjectUnGroup</t>
+  </si>
+  <si>
+    <t>箭头样式</t>
+  </si>
+  <si>
+    <t>ShapeScribble</t>
+  </si>
+  <si>
+    <t>无三维效果</t>
+  </si>
+  <si>
+    <t>形状</t>
+  </si>
+  <si>
+    <t>图片</t>
+  </si>
+  <si>
+    <t>排列</t>
+  </si>
+  <si>
+    <t>轮廓</t>
+  </si>
+  <si>
+    <t>替换</t>
+  </si>
+  <si>
+    <t>PresentationTool</t>
+  </si>
+  <si>
+    <t>演示工具</t>
+  </si>
+  <si>
+    <t>插入表格</t>
+  </si>
+  <si>
+    <t>本地图片</t>
+  </si>
+  <si>
+    <t>表格</t>
+  </si>
+  <si>
+    <t>页眉页脚</t>
+  </si>
+  <si>
+    <t>艺术字</t>
+  </si>
+  <si>
+    <t>对象</t>
+  </si>
+  <si>
+    <t>TextAlignLeft</t>
+  </si>
+  <si>
+    <t>幻灯片编号</t>
+  </si>
+  <si>
+    <t>日期和时间</t>
+  </si>
+  <si>
+    <t>插入新公式</t>
+  </si>
+  <si>
+    <t>音频</t>
+  </si>
+  <si>
+    <t>视频</t>
+  </si>
+  <si>
+    <t>TabOrgChart</t>
+  </si>
+  <si>
+    <t>形状填充</t>
+  </si>
+  <si>
+    <t>TabPictureTool</t>
+  </si>
+  <si>
+    <t>插入</t>
+  </si>
+  <si>
+    <t>增加亮度</t>
+  </si>
+  <si>
+    <t>略向左移</t>
+  </si>
+  <si>
+    <t>略向右移</t>
+  </si>
+  <si>
+    <t>打印机</t>
+  </si>
+  <si>
+    <t>纸张类型</t>
+  </si>
+  <si>
+    <t>份数</t>
+  </si>
+  <si>
+    <t>顺序</t>
+  </si>
+  <si>
+    <t>方式</t>
+  </si>
+  <si>
+    <t>缩放比例:</t>
+  </si>
+  <si>
+    <t>同义词库</t>
+  </si>
+  <si>
+    <t>插入批注</t>
+  </si>
+  <si>
+    <t>ReviewPreviousComment</t>
+  </si>
+  <si>
+    <t>上一条</t>
+  </si>
+  <si>
+    <t>ReviewNextComment</t>
+  </si>
+  <si>
+    <t>下一条</t>
+  </si>
+  <si>
+    <t>繁转简</t>
+  </si>
+  <si>
+    <t>TabshadowDrawingTools</t>
+  </si>
+  <si>
+    <t>其他项目符号</t>
+  </si>
+  <si>
+    <t>自定义放映</t>
+  </si>
+  <si>
+    <t>排练全部</t>
+  </si>
+  <si>
+    <t>放映位置</t>
+  </si>
+  <si>
+    <t>TabSlideTrans</t>
+  </si>
+  <si>
+    <t>切换</t>
+  </si>
+  <si>
+    <t>效果选项</t>
+  </si>
+  <si>
+    <t>TabSmartArtDesign</t>
+  </si>
+  <si>
+    <t>TabSmartArtFormatTool</t>
+  </si>
+  <si>
+    <t>TabStudentTools</t>
+  </si>
+  <si>
+    <t>TabTableTool</t>
+  </si>
+  <si>
+    <t>合并单元格</t>
+  </si>
+  <si>
+    <t>拆分单元格</t>
+  </si>
+  <si>
+    <t>GroupTableAlignment</t>
+  </si>
+  <si>
+    <t>对齐方式</t>
+  </si>
+  <si>
+    <t>TabTextTool</t>
+  </si>
+  <si>
+    <t>清除艺术字</t>
+  </si>
+  <si>
+    <t>TabVideoTool</t>
+  </si>
+  <si>
+    <t>新建窗口</t>
+  </si>
+  <si>
+    <t>JS 宏</t>
+  </si>
+  <si>
+    <t>TabWAshadowDrawingTools</t>
+  </si>
+  <si>
+    <t>TabWordArt</t>
+  </si>
+  <si>
+    <t>TabWorkSpace</t>
+  </si>
+  <si>
+    <t>ExportToPDF</t>
+  </si>
+  <si>
+    <t>更改语言</t>
+  </si>
+  <si>
+    <t>SwitchFace</t>
+  </si>
+  <si>
+    <t>皮肤</t>
+  </si>
+  <si>
+    <t>TabbarQAndA</t>
+  </si>
+  <si>
+    <t>FileMenu</t>
+  </si>
+  <si>
+    <t>开始</t>
+  </si>
+  <si>
+    <t>设计</t>
+  </si>
+  <si>
+    <t>TabSecurity</t>
+  </si>
+  <si>
+    <t>安全</t>
+  </si>
+  <si>
+    <t>云服务</t>
+  </si>
+  <si>
+    <t>TabStudentToolsLayout</t>
+  </si>
+  <si>
+    <t>QAT_Menu</t>
+  </si>
+  <si>
+    <t>快速访问菜单</t>
+  </si>
+  <si>
+    <t>FileNewBlankDocument</t>
+  </si>
+  <si>
+    <t>新建空白文档</t>
+  </si>
+  <si>
+    <t>直接打印</t>
+  </si>
+  <si>
+    <t>恢复</t>
+  </si>
+  <si>
+    <t>文字编辑</t>
+  </si>
+  <si>
+    <t>压缩图片</t>
+  </si>
+  <si>
+    <t>全选</t>
+  </si>
+  <si>
+    <t>FindDialogExcel</t>
+  </si>
+  <si>
+    <t>查找</t>
+  </si>
+  <si>
+    <t>PageSetupDialog</t>
+  </si>
+  <si>
+    <t>Properties</t>
+  </si>
+  <si>
+    <t>幻灯片放映</t>
+  </si>
+  <si>
+    <t>ApplicationExit</t>
+  </si>
+  <si>
+    <t>退出</t>
+  </si>
+  <si>
+    <t>BorderBottomNoToggle</t>
+  </si>
+  <si>
+    <t>下框线</t>
+  </si>
+  <si>
+    <t>上框线</t>
+  </si>
+  <si>
+    <t>左框线</t>
+  </si>
+  <si>
+    <t>右框线</t>
+  </si>
+  <si>
+    <t>所有框线</t>
+  </si>
+  <si>
+    <t>外侧框线</t>
+  </si>
+  <si>
+    <t>PresentationToolRibbon</t>
+  </si>
+  <si>
+    <t>FileCloseOrCloseAll</t>
+  </si>
+  <si>
+    <t>关闭</t>
+  </si>
+  <si>
+    <t>FileCloseAll</t>
+  </si>
+  <si>
+    <t>关闭所有文档</t>
+  </si>
+  <si>
+    <t>SaveAll</t>
+  </si>
+  <si>
+    <t>保存所有文档</t>
+  </si>
+  <si>
+    <t>FileExportToPDF</t>
+  </si>
+  <si>
+    <t>输出为PDF格式</t>
+  </si>
+  <si>
+    <t>FileSaveAsOFD</t>
+  </si>
+  <si>
+    <t>输出为OFD格式</t>
+  </si>
+  <si>
+    <t>FileEncrypt</t>
+  </si>
+  <si>
+    <t>文件加密</t>
+  </si>
+  <si>
+    <t>剪贴画</t>
+  </si>
+  <si>
+    <t>DataTable</t>
+  </si>
+  <si>
+    <t>安全性</t>
+  </si>
+  <si>
+    <t>观看放映</t>
+  </si>
+  <si>
+    <t>排练计时</t>
+  </si>
+  <si>
+    <t>BlogHomePage</t>
+  </si>
+  <si>
+    <t>WPS官方网站</t>
+  </si>
+  <si>
+    <t>设为默认形状样式</t>
+  </si>
+  <si>
+    <t>SheetColumnsDelete</t>
+  </si>
+  <si>
+    <t>删除列</t>
+  </si>
+  <si>
+    <t>Magnifier</t>
+  </si>
+  <si>
+    <t>放大</t>
+  </si>
+  <si>
+    <t>墨迹颜色</t>
+  </si>
+  <si>
+    <t>OrganizationChartInsertSubordinate</t>
+  </si>
+  <si>
+    <t>下属</t>
+  </si>
+  <si>
+    <t>OrganizationChartInsertCoworker</t>
+  </si>
+  <si>
+    <t>同事</t>
+  </si>
+  <si>
+    <t>OrganizationChartInsertAssistant</t>
+  </si>
+  <si>
+    <t>助手</t>
+  </si>
+  <si>
+    <t>标准</t>
+  </si>
+  <si>
+    <t>两边悬挂</t>
+  </si>
+  <si>
+    <t>左悬挂</t>
+  </si>
+  <si>
+    <t>右悬挂</t>
+  </si>
+  <si>
+    <t>OrganizationChartSelectLevel</t>
+  </si>
+  <si>
+    <t>级别</t>
+  </si>
+  <si>
+    <t>OrganizationChartSelectBranch</t>
+  </si>
+  <si>
+    <t>分支</t>
+  </si>
+  <si>
+    <t>直线连接符</t>
+  </si>
+  <si>
+    <t>DiagramChangeToCycleClassic</t>
+  </si>
+  <si>
+    <t>循环型</t>
+  </si>
+  <si>
+    <t>DiagramChangeToRadialClassic</t>
+  </si>
+  <si>
+    <t>射线型</t>
+  </si>
+  <si>
+    <t>DiagramChangeToPyramidClassic</t>
+  </si>
+  <si>
+    <t>棱锥型</t>
+  </si>
+  <si>
+    <t>DiagramChangeToVennDiagramClassic</t>
+  </si>
+  <si>
+    <t>维恩型</t>
+  </si>
+  <si>
+    <t>DiagramChangeToTargetClassic</t>
+  </si>
+  <si>
+    <t>目标图</t>
+  </si>
+  <si>
+    <t>无格式文本</t>
   </si>
 </sst>
 </file>
@@ -4620,9 +5637,46 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="24">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -4633,14 +5687,6 @@
       <color theme="1"/>
       <name val="OPPO Sans 4.0"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -4971,12 +6017,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFEEEEEE"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFEEEEEE"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFEEEEEE"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFEEEEEE"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -5089,71 +6150,87 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -5495,21 +6572,21 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J3526"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A903" workbookViewId="0">
-      <selection activeCell="A924" sqref="A924"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="42.8916666666667" customWidth="1"/>
-    <col min="2" max="2" width="23.7833333333333" customWidth="1"/>
-    <col min="3" max="3" width="31.725" customWidth="1"/>
-    <col min="4" max="4" width="28.8166666666667" customWidth="1"/>
-    <col min="5" max="6" width="21.1833333333333" customWidth="1"/>
-    <col min="7" max="7" width="24.4416666666667" customWidth="1"/>
+    <col min="1" max="1" width="42.8909090909091" customWidth="1"/>
+    <col min="2" max="2" width="23.7818181818182" customWidth="1"/>
+    <col min="3" max="3" width="31.7272727272727" customWidth="1"/>
+    <col min="4" max="4" width="28.8181818181818" customWidth="1"/>
+    <col min="5" max="6" width="21.1818181818182" customWidth="1"/>
+    <col min="7" max="7" width="24.4454545454545" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="17.6333333333333" customWidth="1"/>
-    <col min="10" max="10" width="20.8166666666667" customWidth="1"/>
+    <col min="9" max="9" width="17.6363636363636" customWidth="1"/>
+    <col min="10" max="10" width="20.8181818181818" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -24138,23 +25215,23 @@
       </c>
     </row>
     <row r="921" spans="1:10">
-      <c r="A921" s="1" t="s">
+      <c r="A921" s="7" t="s">
         <v>696</v>
       </c>
-      <c r="B921" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C921" s="1" t="s">
+      <c r="B921" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C921" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="D921" s="1" t="s">
+      <c r="D921" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="E921" s="1"/>
-      <c r="F921" s="1"/>
-      <c r="G921" s="1"/>
-      <c r="H921" s="1"/>
-      <c r="I921" s="1">
+      <c r="E921" s="7"/>
+      <c r="F921" s="7"/>
+      <c r="G921" s="7"/>
+      <c r="H921" s="7"/>
+      <c r="I921" s="7">
         <v>22133</v>
       </c>
       <c r="J921" t="s">
@@ -30153,27 +31230,27 @@
       </c>
     </row>
     <row r="1207" spans="1:10">
-      <c r="A1207" s="1" t="s">
+      <c r="A1207" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B1207" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1207" s="1" t="s">
+      <c r="B1207" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1207" s="7" t="s">
         <v>780</v>
       </c>
-      <c r="D1207" s="1" t="s">
+      <c r="D1207" s="7" t="s">
         <v>815</v>
       </c>
-      <c r="E1207" s="1" t="s">
+      <c r="E1207" s="7" t="s">
         <v>855</v>
       </c>
-      <c r="F1207" s="1" t="s">
+      <c r="F1207" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G1207" s="1"/>
-      <c r="H1207" s="1"/>
-      <c r="I1207" s="1">
+      <c r="G1207" s="7"/>
+      <c r="H1207" s="7"/>
+      <c r="I1207" s="7">
         <v>12784</v>
       </c>
       <c r="J1207" t="s">
@@ -30181,202 +31258,202 @@
       </c>
     </row>
     <row r="1208" spans="1:10">
-      <c r="A1208" s="1" t="s">
+      <c r="A1208" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B1208" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1208" s="1" t="s">
+      <c r="B1208" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1208" s="7" t="s">
         <v>780</v>
       </c>
-      <c r="D1208" s="1" t="s">
+      <c r="D1208" s="7" t="s">
         <v>815</v>
       </c>
-      <c r="E1208" s="1" t="s">
+      <c r="E1208" s="7" t="s">
         <v>855</v>
       </c>
-      <c r="F1208" s="1" t="s">
+      <c r="F1208" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G1208" s="1"/>
-      <c r="H1208" s="1"/>
-      <c r="I1208" s="1">
+      <c r="G1208" s="7"/>
+      <c r="H1208" s="7"/>
+      <c r="I1208" s="7">
         <v>12788</v>
       </c>
     </row>
     <row r="1209" spans="1:10">
-      <c r="A1209" s="1" t="s">
+      <c r="A1209" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B1209" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1209" s="1" t="s">
+      <c r="B1209" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1209" s="7" t="s">
         <v>780</v>
       </c>
-      <c r="D1209" s="1" t="s">
+      <c r="D1209" s="7" t="s">
         <v>815</v>
       </c>
-      <c r="E1209" s="1" t="s">
+      <c r="E1209" s="7" t="s">
         <v>855</v>
       </c>
-      <c r="F1209" s="1" t="s">
+      <c r="F1209" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G1209" s="1"/>
-      <c r="H1209" s="1"/>
-      <c r="I1209" s="1">
+      <c r="G1209" s="7"/>
+      <c r="H1209" s="7"/>
+      <c r="I1209" s="7">
         <v>12785</v>
       </c>
     </row>
     <row r="1210" spans="1:10">
-      <c r="A1210" s="1" t="s">
+      <c r="A1210" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B1210" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1210" s="1" t="s">
+      <c r="B1210" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1210" s="7" t="s">
         <v>780</v>
       </c>
-      <c r="D1210" s="1" t="s">
+      <c r="D1210" s="7" t="s">
         <v>815</v>
       </c>
-      <c r="E1210" s="1" t="s">
+      <c r="E1210" s="7" t="s">
         <v>855</v>
       </c>
-      <c r="F1210" s="1" t="s">
+      <c r="F1210" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G1210" s="1"/>
-      <c r="H1210" s="1"/>
-      <c r="I1210" s="1">
+      <c r="G1210" s="7"/>
+      <c r="H1210" s="7"/>
+      <c r="I1210" s="7">
         <v>12786</v>
       </c>
     </row>
     <row r="1211" spans="1:10">
-      <c r="A1211" s="1" t="s">
+      <c r="A1211" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B1211" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1211" s="1" t="s">
+      <c r="B1211" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1211" s="7" t="s">
         <v>780</v>
       </c>
-      <c r="D1211" s="1" t="s">
+      <c r="D1211" s="7" t="s">
         <v>815</v>
       </c>
-      <c r="E1211" s="1" t="s">
+      <c r="E1211" s="7" t="s">
         <v>855</v>
       </c>
-      <c r="F1211" s="1" t="s">
+      <c r="F1211" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G1211" s="1"/>
-      <c r="H1211" s="1"/>
-      <c r="I1211" s="1">
+      <c r="G1211" s="7"/>
+      <c r="H1211" s="7"/>
+      <c r="I1211" s="7">
         <v>12789</v>
       </c>
     </row>
     <row r="1212" spans="1:10">
-      <c r="A1212" s="1" t="s">
+      <c r="A1212" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B1212" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1212" s="1" t="s">
+      <c r="B1212" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1212" s="7" t="s">
         <v>780</v>
       </c>
-      <c r="D1212" s="1" t="s">
+      <c r="D1212" s="7" t="s">
         <v>815</v>
       </c>
-      <c r="E1212" s="1" t="s">
+      <c r="E1212" s="7" t="s">
         <v>855</v>
       </c>
-      <c r="F1212" s="1" t="s">
+      <c r="F1212" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G1212" s="1"/>
-      <c r="H1212" s="1"/>
-      <c r="I1212" s="1">
+      <c r="G1212" s="7"/>
+      <c r="H1212" s="7"/>
+      <c r="I1212" s="7">
         <v>12787</v>
       </c>
     </row>
     <row r="1213" spans="1:10">
-      <c r="A1213" s="1" t="s">
+      <c r="A1213" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B1213" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1213" s="1" t="s">
+      <c r="B1213" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1213" s="7" t="s">
         <v>780</v>
       </c>
-      <c r="D1213" s="1" t="s">
+      <c r="D1213" s="7" t="s">
         <v>815</v>
       </c>
-      <c r="E1213" s="1" t="s">
+      <c r="E1213" s="7" t="s">
         <v>855</v>
       </c>
-      <c r="F1213" s="1" t="s">
+      <c r="F1213" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G1213" s="1"/>
-      <c r="H1213" s="1"/>
-      <c r="I1213" s="1">
+      <c r="G1213" s="7"/>
+      <c r="H1213" s="7"/>
+      <c r="I1213" s="7">
         <v>12790</v>
       </c>
     </row>
     <row r="1214" spans="1:10">
-      <c r="A1214" s="1" t="s">
+      <c r="A1214" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B1214" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1214" s="1" t="s">
+      <c r="B1214" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1214" s="7" t="s">
         <v>780</v>
       </c>
-      <c r="D1214" s="1" t="s">
+      <c r="D1214" s="7" t="s">
         <v>815</v>
       </c>
-      <c r="E1214" s="1" t="s">
+      <c r="E1214" s="7" t="s">
         <v>855</v>
       </c>
-      <c r="F1214" s="1" t="s">
+      <c r="F1214" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G1214" s="1"/>
-      <c r="H1214" s="1"/>
-      <c r="I1214" s="1">
+      <c r="G1214" s="7"/>
+      <c r="H1214" s="7"/>
+      <c r="I1214" s="7">
         <v>12791</v>
       </c>
     </row>
     <row r="1215" spans="1:10">
-      <c r="A1215" s="1" t="s">
+      <c r="A1215" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B1215" s="1" t="s">
+      <c r="B1215" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C1215" s="1" t="s">
+      <c r="C1215" s="7" t="s">
         <v>780</v>
       </c>
-      <c r="D1215" s="1" t="s">
+      <c r="D1215" s="7" t="s">
         <v>815</v>
       </c>
-      <c r="E1215" s="1" t="s">
+      <c r="E1215" s="7" t="s">
         <v>855</v>
       </c>
-      <c r="F1215" s="1" t="s">
+      <c r="F1215" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G1215" s="1"/>
-      <c r="H1215" s="1"/>
-      <c r="I1215" s="1">
+      <c r="G1215" s="7"/>
+      <c r="H1215" s="7"/>
+      <c r="I1215" s="7">
         <v>12783</v>
       </c>
       <c r="J1215" t="s">
@@ -30384,27 +31461,27 @@
       </c>
     </row>
     <row r="1216" spans="1:10">
-      <c r="A1216" s="1" t="s">
+      <c r="A1216" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B1216" s="1" t="s">
+      <c r="B1216" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C1216" s="1" t="s">
+      <c r="C1216" s="7" t="s">
         <v>780</v>
       </c>
-      <c r="D1216" s="1" t="s">
+      <c r="D1216" s="7" t="s">
         <v>815</v>
       </c>
-      <c r="E1216" s="1" t="s">
+      <c r="E1216" s="7" t="s">
         <v>855</v>
       </c>
-      <c r="F1216" s="1" t="s">
+      <c r="F1216" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G1216" s="1"/>
-      <c r="H1216" s="1"/>
-      <c r="I1216" s="1">
+      <c r="G1216" s="7"/>
+      <c r="H1216" s="7"/>
+      <c r="I1216" s="7">
         <v>12782</v>
       </c>
       <c r="J1216" t="s">
@@ -79058,4 +80135,6734 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E499"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="2" width="34.6363636363636" customWidth="1"/>
+    <col min="3" max="3" width="23.6363636363636" customWidth="1"/>
+    <col min="4" max="4" width="36.0909090909091" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="31" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" ht="14.75" spans="1:5">
+      <c r="A2" s="5" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="3" ht="14.75" spans="1:5">
+      <c r="A3" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="4" ht="14.75" spans="1:5">
+      <c r="A4" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="5" ht="14.75" spans="1:5">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="6" ht="14.75" spans="1:5">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="7" ht="14.75" spans="1:5">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="8" ht="14.75" spans="1:5">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="9" ht="14.75" spans="1:5">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="10" ht="14.75" spans="1:5">
+      <c r="A10" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="11" ht="14.75" spans="1:5">
+      <c r="A11" s="6" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="12" ht="14.75" spans="1:5">
+      <c r="A12" s="6" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="13" ht="14.75" spans="1:5">
+      <c r="A13" s="6" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="14" ht="14.75" spans="1:5">
+      <c r="A14" s="6" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="15" ht="14.75" spans="1:5">
+      <c r="A15" s="6" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="16" ht="14.75" spans="1:5">
+      <c r="A16" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="17" ht="14.75" spans="1:4">
+      <c r="A17" s="6" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="18" ht="14.75" spans="1:4">
+      <c r="A18" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="19" ht="14.75" spans="1:4">
+      <c r="A19" s="6" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="20" ht="14.75" spans="1:4">
+      <c r="A20" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="21" ht="14.75" spans="1:4">
+      <c r="A21" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="22" ht="14.75" spans="1:4">
+      <c r="A22" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="23" ht="14.75" spans="1:4">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="24" ht="14.75" spans="1:4">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="25" ht="14.75" spans="1:4">
+      <c r="A25" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="6" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="27" ht="14.75" spans="1:4">
+      <c r="A27" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="28" ht="14.75" spans="1:4">
+      <c r="A28" s="6" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="29" ht="14.75" spans="1:4">
+      <c r="A29" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="30" ht="14.75" spans="1:4">
+      <c r="A30" s="6" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="31" ht="14.75" spans="1:4">
+      <c r="A31" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="32" ht="14.75" spans="1:4">
+      <c r="A32" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="33" ht="14.75" spans="1:4">
+      <c r="A33" s="6" t="s">
+        <v>963</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="34" ht="14.75" spans="1:4">
+      <c r="A34" s="6" t="s">
+        <v>963</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="35" ht="14.75" spans="1:4">
+      <c r="A35" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="36" ht="14.75" spans="1:4">
+      <c r="A36" s="6" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="37" ht="14.75" spans="1:4">
+      <c r="A37" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="38" ht="14.75" spans="1:4">
+      <c r="A38" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="39" ht="14.75" spans="1:4">
+      <c r="A39" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="40" ht="14.75" spans="1:4">
+      <c r="A40" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="41" ht="14.75" spans="1:4">
+      <c r="A41" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="42" ht="14.75" spans="1:4">
+      <c r="A42" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="43" ht="14.75" spans="1:4">
+      <c r="A43" s="6" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="44" ht="14.75" spans="1:4">
+      <c r="A44" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="45" ht="14.75" spans="1:4">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="46" ht="14.75" spans="1:4">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D46" s="6"/>
+    </row>
+    <row r="47" ht="14.75" spans="1:4">
+      <c r="A47" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="48" ht="14.75" spans="1:4">
+      <c r="A48" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="49" ht="14.75" spans="1:4">
+      <c r="A49" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="50" ht="14.75" spans="1:4">
+      <c r="A50" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="51" ht="14.75" spans="1:4">
+      <c r="A51" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="52" ht="14.75" spans="1:4">
+      <c r="A52" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="53" ht="14.75" spans="1:4">
+      <c r="A53" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="54" ht="14.75" spans="1:4">
+      <c r="A54" s="6" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="55" ht="14.75" spans="1:4">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="56" ht="14.75" spans="1:4">
+      <c r="A56" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="57" ht="14.75" spans="1:4">
+      <c r="A57" s="6" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="58" ht="14.75" spans="1:4">
+      <c r="A58" s="6" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="59" ht="14.75" spans="1:4">
+      <c r="A59" s="6" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="60" ht="14.75" spans="1:4">
+      <c r="A60" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="61" ht="14.75" spans="1:4">
+      <c r="A61" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="62" ht="14.75" spans="1:4">
+      <c r="A62" s="6" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D62" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" ht="14.75" spans="1:4">
+      <c r="A63" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D63" s="6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="64" ht="14.75" spans="1:4">
+      <c r="A64" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D64" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" ht="14.75" spans="1:4">
+      <c r="A65" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D65" s="6">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="66" ht="14.75" spans="1:4">
+      <c r="A66" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D66" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" ht="14.75" spans="1:4">
+      <c r="A67" s="6"/>
+      <c r="B67" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="68" ht="14.75" spans="1:4">
+      <c r="A68" s="6"/>
+      <c r="B68" s="6" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="69" ht="14.75" spans="1:4">
+      <c r="A69" s="6"/>
+      <c r="B69" s="6" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="70" ht="14.75" spans="1:4">
+      <c r="A70" s="6" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="71" ht="14.75" spans="1:4">
+      <c r="A71" s="6" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="72" ht="14.75" spans="1:4">
+      <c r="A72" s="6" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="73" ht="14.75" spans="1:4">
+      <c r="A73" s="6" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="74" ht="14.75" spans="1:4">
+      <c r="A74" s="6" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="75" ht="14.75" spans="1:4">
+      <c r="A75" s="6" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="76" ht="14.75" spans="1:4">
+      <c r="A76" s="6" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="77" ht="14.75" spans="1:4">
+      <c r="A77" s="6" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="78" ht="14.75" spans="1:4">
+      <c r="A78" s="6" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="79" ht="14.75" spans="1:4">
+      <c r="A79" s="6" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="80" ht="14.75" spans="1:4">
+      <c r="A80" s="6" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="81" ht="14.75" spans="1:4">
+      <c r="A81" s="6" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="82" ht="14.75" spans="1:4">
+      <c r="A82" s="6" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="83" ht="14.75" spans="1:4">
+      <c r="A83" s="6" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="84" ht="14.75" spans="1:4">
+      <c r="A84" s="6" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="85" ht="14.75" spans="1:4">
+      <c r="A85" s="6" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="86" ht="14.75" spans="1:4">
+      <c r="A86" s="6" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="87" ht="14.75" spans="1:4">
+      <c r="A87" s="6" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="88" ht="14.75" spans="1:4">
+      <c r="A88" s="6" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="89" ht="14.75" spans="1:4">
+      <c r="A89" s="6" t="s">
+        <v>737</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="90" ht="14.75" spans="1:4">
+      <c r="A90" s="6" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="91" ht="14.75" spans="1:4">
+      <c r="A91" s="6" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="92" ht="14.75" spans="1:4">
+      <c r="A92" s="6" t="s">
+        <v>759</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="93" ht="14.75" spans="1:4">
+      <c r="A93" s="6" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="94" ht="14.75" spans="1:4">
+      <c r="A94" s="6" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="95" ht="14.75" spans="1:4">
+      <c r="A95" s="6" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="96" ht="14.75" spans="1:4">
+      <c r="A96" s="6" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="97" ht="14.75" spans="1:4">
+      <c r="A97" s="6" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="98" ht="14.75" spans="1:4">
+      <c r="A98" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="99" ht="14.75" spans="1:4">
+      <c r="A99" s="6" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="100" ht="14.75" spans="1:4">
+      <c r="A100" s="6" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="101" ht="14.75" spans="1:4">
+      <c r="A101" s="6" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="102" ht="14.75" spans="1:4">
+      <c r="A102" s="6" t="s">
+        <v>757</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="103" ht="14.75" spans="1:4">
+      <c r="A103" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="104" ht="14.75" spans="1:4">
+      <c r="A104" s="6" t="s">
+        <v>758</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="105" ht="14.75" spans="1:4">
+      <c r="A105" s="6"/>
+      <c r="B105" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D105" s="6"/>
+    </row>
+    <row r="106" ht="14.75" spans="1:4">
+      <c r="A106" s="6"/>
+      <c r="B106" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D106" s="6"/>
+    </row>
+    <row r="107" ht="14.75" spans="1:4">
+      <c r="A107" s="6"/>
+      <c r="B107" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D107" s="6"/>
+    </row>
+    <row r="108" ht="14.75" spans="1:4">
+      <c r="A108" s="6" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="109" ht="14.75" spans="1:4">
+      <c r="A109" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="110" ht="14.75" spans="1:4">
+      <c r="A110" s="6"/>
+      <c r="B110" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="111" ht="14.75" spans="1:4">
+      <c r="A111" s="6"/>
+      <c r="B111" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="112" ht="14.75" spans="1:4">
+      <c r="A112" s="6" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="113" ht="14.75" spans="1:4">
+      <c r="A113" s="6" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="114" ht="14.75" spans="1:4">
+      <c r="A114" s="6" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="115" ht="14.75" spans="1:4">
+      <c r="A115" s="6" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="116" ht="14.75" spans="1:4">
+      <c r="A116" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="117" ht="14.75" spans="1:4">
+      <c r="A117" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="118" ht="14.75" spans="1:4">
+      <c r="A118" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="119" ht="14.75" spans="1:4">
+      <c r="A119" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="120" ht="14.75" spans="1:4">
+      <c r="A120" s="6" t="s">
+        <v>765</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="121" ht="14.75" spans="1:4">
+      <c r="A121" s="6" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="122" ht="14.75" spans="1:4">
+      <c r="A122" s="6" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="123" ht="14.75" spans="1:4">
+      <c r="A123" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="B123" s="6"/>
+      <c r="C123" s="6" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="124" ht="14.75" spans="1:4">
+      <c r="A124" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="125" ht="14.75" spans="1:4">
+      <c r="A125" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="126" ht="14.75" spans="1:4">
+      <c r="A126" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="127" ht="14.75" spans="1:4">
+      <c r="A127" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="128" ht="14.75" spans="1:4">
+      <c r="A128" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="129" ht="14.75" spans="1:4">
+      <c r="A129" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="130" ht="14.75" spans="1:4">
+      <c r="A130" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="131" ht="14.75" spans="1:4">
+      <c r="A131" s="6" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="132" ht="14.75" spans="1:4">
+      <c r="A132" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="133" ht="14.75" spans="1:4">
+      <c r="A133" s="6"/>
+      <c r="B133" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="134" ht="14.75" spans="1:4">
+      <c r="A134" s="6"/>
+      <c r="B134" s="6" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="135" ht="14.75" spans="1:4">
+      <c r="A135" s="6"/>
+      <c r="B135" s="6" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="136" ht="14.75" spans="1:4">
+      <c r="A136" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="137" ht="14.75" spans="1:4">
+      <c r="A137" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="138" ht="14.75" spans="1:4">
+      <c r="A138" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="139" ht="14.75" spans="1:4">
+      <c r="A139" s="6" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="140" ht="14.75" spans="1:4">
+      <c r="A140" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="141" ht="14.75" spans="1:4">
+      <c r="A141" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="142" ht="14.75" spans="1:4">
+      <c r="A142" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="143" ht="14.75" spans="1:4">
+      <c r="A143" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="144" ht="14.75" spans="1:4">
+      <c r="A144" s="6" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D144" s="6" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="145" ht="14.75" spans="1:4">
+      <c r="A145" s="6"/>
+      <c r="B145" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="146" ht="14.75" spans="1:4">
+      <c r="A146" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="147" ht="14.75" spans="1:4">
+      <c r="A147" s="6" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="148" ht="14.75" spans="1:4">
+      <c r="A148" s="6" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D148" s="6" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="149" ht="14.75" spans="1:4">
+      <c r="A149" s="6" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="150" ht="14.75" spans="1:4">
+      <c r="A150" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="151" ht="14.75" spans="1:4">
+      <c r="A151" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="152" ht="14.75" spans="1:4">
+      <c r="A152" s="6" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D152" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" ht="14.75" spans="1:4">
+      <c r="A153" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D153" s="6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="154" ht="14.75" spans="1:4">
+      <c r="A154" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D154" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" ht="14.75" spans="1:4">
+      <c r="A155" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D155" s="6">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="156" ht="14.75" spans="1:4">
+      <c r="A156" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D156" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" ht="14.75" spans="1:4">
+      <c r="A157" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="B157" s="6"/>
+      <c r="C157" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D157" s="6" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="158" ht="14.75" spans="1:4">
+      <c r="A158" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="B158" s="6"/>
+      <c r="C158" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="159" ht="14.75" spans="1:4">
+      <c r="A159" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B159" s="6"/>
+      <c r="C159" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="160" ht="14.75" spans="1:4">
+      <c r="A160" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B160" s="6"/>
+      <c r="C160" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D160" s="6" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="161" ht="14.75" spans="1:4">
+      <c r="A161" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B161" s="6"/>
+      <c r="C161" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="162" ht="14.75" spans="1:4">
+      <c r="A162" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B162" s="6"/>
+      <c r="C162" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="163" ht="14.75" spans="1:4">
+      <c r="A163" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="164" ht="14.75" spans="1:4">
+      <c r="A164" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="165" ht="14.75" spans="1:4">
+      <c r="A165" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="B165" s="6"/>
+      <c r="C165" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="166" ht="14.75" spans="1:4">
+      <c r="A166" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B166" s="6"/>
+      <c r="C166" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D166" s="6" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="167" ht="14.75" spans="1:4">
+      <c r="A167" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="B167" s="6"/>
+      <c r="C167" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="168" ht="14.75" spans="1:4">
+      <c r="A168" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="169" ht="14.75" spans="1:4">
+      <c r="A169" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D169" s="6" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="170" ht="14.75" spans="1:4">
+      <c r="A170" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D170" s="6" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="171" ht="14.75" spans="1:4">
+      <c r="A171" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D171" s="6" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="172" ht="14.75" spans="1:4">
+      <c r="A172" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D172" s="6" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="173" ht="14.75" spans="1:4">
+      <c r="A173" s="6" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="174" ht="14.75" spans="1:4">
+      <c r="A174" s="6" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B174" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="175" ht="14.75" spans="1:4">
+      <c r="A175" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D175" s="6" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="176" ht="14.75" spans="1:4">
+      <c r="A176" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D176" s="6" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="177" ht="14.75" spans="1:4">
+      <c r="A177" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D177" s="6" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="178" ht="14.75" spans="1:4">
+      <c r="A178" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D178" s="6" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="179" ht="14.75" spans="1:4">
+      <c r="A179" s="6" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D179" s="6" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="180" ht="14.75" spans="1:4">
+      <c r="A180" s="6"/>
+      <c r="B180" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D180" s="6" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="181" ht="14.75" spans="1:4">
+      <c r="A181" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D181" s="6" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="182" ht="14.75" spans="1:4">
+      <c r="A182" s="6" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B182" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D182" s="6" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="183" ht="14.75" spans="1:4">
+      <c r="A183" s="6" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D183" s="6" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="184" ht="14.75" spans="1:4">
+      <c r="A184" s="6" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D184" s="6" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="185" ht="14.75" spans="1:4">
+      <c r="A185" s="6" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D185" s="6">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="186" ht="14.75" spans="1:4">
+      <c r="A186" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B186" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D186" s="6"/>
+    </row>
+    <row r="187" ht="14.75" spans="1:4">
+      <c r="A187" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B187" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D187" s="6"/>
+    </row>
+    <row r="188" ht="14.75" spans="1:4">
+      <c r="A188" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D188" s="6"/>
+    </row>
+    <row r="189" ht="14.75" spans="1:4">
+      <c r="A189" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B189" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D189" s="6"/>
+    </row>
+    <row r="190" ht="14.75" spans="1:4">
+      <c r="A190" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="B190" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D190" s="6" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="191" ht="14.75" spans="1:4">
+      <c r="A191" s="6" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B191" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D191" s="6" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="192" ht="14.75" spans="1:4">
+      <c r="A192" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D192" s="6" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="193" ht="14.75" spans="1:4">
+      <c r="A193" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D193" s="6" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="194" ht="14.75" spans="1:4">
+      <c r="A194" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D194" s="6" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="195" ht="14.75" spans="1:4">
+      <c r="A195" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D195" s="6" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="196" ht="14.75" spans="1:4">
+      <c r="A196" s="6" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D196" s="6" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="197" ht="14.75" spans="1:4">
+      <c r="A197" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B197" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D197" s="6" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="198" ht="14.75" spans="1:4">
+      <c r="A198" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B198" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D198" s="6" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="199" ht="14.75" spans="1:4">
+      <c r="A199" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D199" s="6" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="200" ht="14.75" spans="1:4">
+      <c r="A200" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B200" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D200" s="6" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="201" ht="14.75" spans="1:4">
+      <c r="A201" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B201" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D201" s="6" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="202" ht="14.75" spans="1:4">
+      <c r="A202" s="6" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B202" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D202" s="6" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="203" ht="14.75" spans="1:4">
+      <c r="A203" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B203" s="6"/>
+      <c r="C203" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D203" s="6" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="204" ht="14.75" spans="1:4">
+      <c r="A204" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B204" s="6"/>
+      <c r="C204" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D204" s="6" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="205" ht="14.75" spans="1:4">
+      <c r="A205" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B205" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D205" s="6" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="206" ht="14.75" spans="1:4">
+      <c r="A206" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B206" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D206" s="6" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="207" ht="14.75" spans="1:4">
+      <c r="A207" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B207" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D207" s="6" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="208" ht="14.75" spans="1:4">
+      <c r="A208" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B208" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D208" s="6" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="209" ht="14.75" spans="1:4">
+      <c r="A209" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B209" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D209" s="6" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="210" ht="14.75" spans="1:4">
+      <c r="A210" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B210" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D210" s="6" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="211" ht="14.75" spans="1:4">
+      <c r="A211" s="6" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B211" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C211" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D211" s="6" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="212" ht="14.75" spans="1:4">
+      <c r="A212" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B212" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D212" s="6" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="213" ht="14.75" spans="1:4">
+      <c r="A213" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B213" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C213" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D213" s="6" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="214" ht="14.75" spans="1:4">
+      <c r="A214" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B214" s="6"/>
+      <c r="C214" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D214" s="6" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="215" ht="14.75" spans="1:4">
+      <c r="A215" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B215" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D215" s="6" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="216" ht="14.75" spans="1:4">
+      <c r="A216" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B216" s="6"/>
+      <c r="C216" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D216" s="6" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="217" ht="14.75" spans="1:4">
+      <c r="A217" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B217" s="6"/>
+      <c r="C217" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D217" s="6" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="218" ht="14.75" spans="1:4">
+      <c r="A218" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B218" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D218" s="6" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="219" ht="14.75" spans="1:4">
+      <c r="A219" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B219" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C219" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D219" s="6" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="220" ht="14.75" spans="1:4">
+      <c r="A220" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B220" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C220" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D220" s="6" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="221" ht="14.75" spans="1:4">
+      <c r="A221" s="6" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B221" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C221" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D221" s="6" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="222" ht="14.75" spans="1:4">
+      <c r="A222" s="6" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B222" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C222" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D222" s="6" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="223" ht="14.75" spans="1:4">
+      <c r="A223" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B223" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C223" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D223" s="6" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="224" ht="14.75" spans="1:4">
+      <c r="A224" s="6" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B224" s="6"/>
+      <c r="C224" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D224" s="6" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="225" ht="14.75" spans="1:4">
+      <c r="A225" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B225" s="6"/>
+      <c r="C225" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D225" s="6" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="226" ht="14.75" spans="1:4">
+      <c r="A226" s="6" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B226" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C226" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D226" s="6" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="227" ht="14.75" spans="1:4">
+      <c r="A227" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="B227" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C227" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D227" s="6" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="228" ht="14.75" spans="1:4">
+      <c r="A228" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="B228" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C228" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D228" s="6" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="229" ht="14.75" spans="1:4">
+      <c r="A229" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B229" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C229" s="6" t="s">
+        <v>1725</v>
+      </c>
+      <c r="D229" s="6" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="230" ht="14.75" spans="1:4">
+      <c r="A230" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B230" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C230" s="6" t="s">
+        <v>1725</v>
+      </c>
+      <c r="D230" s="6" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="231" ht="14.75" spans="1:4">
+      <c r="A231" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B231" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C231" s="6" t="s">
+        <v>1725</v>
+      </c>
+      <c r="D231" s="6" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="232" ht="14.75" spans="1:4">
+      <c r="A232" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B232" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C232" s="6" t="s">
+        <v>1725</v>
+      </c>
+      <c r="D232" s="6" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="233" ht="14.75" spans="1:4">
+      <c r="A233" s="6" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B233" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C233" s="6" t="s">
+        <v>1725</v>
+      </c>
+      <c r="D233" s="6" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="234" ht="14.75" spans="1:4">
+      <c r="A234" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B234" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C234" s="6" t="s">
+        <v>1725</v>
+      </c>
+      <c r="D234" s="6" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="235" ht="14.75" spans="1:4">
+      <c r="A235" s="6" t="s">
+        <v>968</v>
+      </c>
+      <c r="B235" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C235" s="6" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D235" s="6" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="236" ht="14.75" spans="1:4">
+      <c r="A236" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="B236" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C236" s="6" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D236" s="6" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="237" ht="14.75" spans="1:4">
+      <c r="A237" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B237" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C237" s="6" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D237" s="6" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="238" ht="14.75" spans="1:4">
+      <c r="A238" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B238" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C238" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D238" s="6" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="239" ht="14.75" spans="1:4">
+      <c r="A239" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B239" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C239" s="6" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D239" s="6" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="240" ht="14.75" spans="1:4">
+      <c r="A240" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B240" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C240" s="6" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D240" s="6" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="241" ht="14.75" spans="1:4">
+      <c r="A241" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B241" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C241" s="6" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D241" s="6" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="242" ht="14.75" spans="1:4">
+      <c r="A242" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B242" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C242" s="6" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D242" s="6" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="243" ht="14.75" spans="1:4">
+      <c r="A243" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B243" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C243" s="6" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D243" s="6" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="244" ht="14.75" spans="1:4">
+      <c r="A244" s="6" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B244" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C244" s="6" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D244" s="6" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="245" ht="14.75" spans="1:4">
+      <c r="A245" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="B245" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C245" s="6" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D245" s="6" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="246" ht="14.75" spans="1:4">
+      <c r="A246" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B246" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C246" s="6" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D246" s="6" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="247" ht="14.75" spans="1:4">
+      <c r="A247" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B247" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C247" s="6" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D247" s="6" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="248" ht="14.75" spans="1:4">
+      <c r="A248" s="6"/>
+      <c r="B248" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C248" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D248" s="6" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="249" ht="14.75" spans="1:4">
+      <c r="A249" s="6"/>
+      <c r="B249" s="6" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C249" s="6" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D249" s="6"/>
+    </row>
+    <row r="250" ht="14.75" spans="1:4">
+      <c r="A250" s="6"/>
+      <c r="B250" s="6" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C250" s="6" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D250" s="6"/>
+    </row>
+    <row r="251" ht="14.75" spans="1:4">
+      <c r="A251" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="B251" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C251" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D251" s="6" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="252" ht="14.75" spans="1:4">
+      <c r="A252" s="6"/>
+      <c r="B252" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C252" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="D252" s="6" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="253" ht="14.75" spans="1:4">
+      <c r="A253" s="6"/>
+      <c r="B253" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C253" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="D253" s="6" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="254" ht="14.75" spans="1:4">
+      <c r="A254" s="6"/>
+      <c r="B254" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C254" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="D254" s="6" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="255" ht="14.75" spans="1:4">
+      <c r="A255" s="6"/>
+      <c r="B255" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C255" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="D255" s="6" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="256" ht="14.75" spans="1:4">
+      <c r="A256" s="6"/>
+      <c r="B256" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C256" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="D256" s="6" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="257" ht="14.75" spans="1:4">
+      <c r="A257" s="6"/>
+      <c r="B257" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C257" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="D257" s="6" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="258" ht="14.75" spans="1:4">
+      <c r="A258" s="6"/>
+      <c r="B258" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C258" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D258" s="6" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="259" ht="14.75" spans="1:4">
+      <c r="A259" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="B259" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C259" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="D259" s="6" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="260" ht="14.75" spans="1:4">
+      <c r="A260" s="6" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B260" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C260" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="D260" s="6" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="261" ht="14.75" spans="1:4">
+      <c r="A261" s="6" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B261" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C261" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="D261" s="6" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="262" ht="14.75" spans="1:4">
+      <c r="A262" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="B262" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C262" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="D262" s="6" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="263" ht="14.75" spans="1:4">
+      <c r="A263" s="6" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B263" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C263" s="6" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D263" s="6" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="264" ht="14.75" spans="1:4">
+      <c r="A264" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B264" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C264" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="D264" s="6" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="265" ht="14.75" spans="1:4">
+      <c r="A265" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B265" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C265" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="D265" s="6" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="266" ht="14.75" spans="1:4">
+      <c r="A266" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B266" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C266" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="D266" s="6" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="267" ht="14.75" spans="1:4">
+      <c r="A267" s="6" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B267" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C267" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="D267" s="6" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="268" ht="14.75" spans="1:4">
+      <c r="A268" s="6" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B268" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C268" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="D268" s="6" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="269" ht="14.75" spans="1:4">
+      <c r="A269" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B269" s="6"/>
+      <c r="C269" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="D269" s="6" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="270" ht="14.75" spans="1:4">
+      <c r="A270" s="6"/>
+      <c r="B270" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C270" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="D270" s="6" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="271" ht="14.75" spans="1:4">
+      <c r="A271" s="6"/>
+      <c r="B271" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C271" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="D271" s="6" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="272" ht="14.75" spans="1:4">
+      <c r="A272" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="B272" s="6"/>
+      <c r="C272" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="D272" s="6" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="273" ht="14.75" spans="1:4">
+      <c r="A273" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B273" s="6"/>
+      <c r="C273" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="D273" s="6" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="274" ht="14.75" spans="1:4">
+      <c r="A274" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="B274" s="6"/>
+      <c r="C274" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D274" s="6" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="275" ht="14.75" spans="1:4">
+      <c r="A275" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="B275" s="6"/>
+      <c r="C275" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="D275" s="6" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="276" ht="14.75" spans="1:4">
+      <c r="A276" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="B276" s="6"/>
+      <c r="C276" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="D276" s="6" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="277" ht="14.75" spans="1:4">
+      <c r="A277" s="6"/>
+      <c r="B277" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C277" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="D277" s="6" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="278" ht="14.75" spans="1:4">
+      <c r="A278" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="B278" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C278" s="6" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D278" s="6" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="279" ht="14.75" spans="1:4">
+      <c r="A279" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B279" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C279" s="6" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D279" s="6" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="280" ht="14.75" spans="1:4">
+      <c r="A280" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B280" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C280" s="6" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D280" s="6" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="281" ht="14.75" spans="1:4">
+      <c r="A281" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B281" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C281" s="6" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D281" s="6" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="282" ht="14.75" spans="1:4">
+      <c r="A282" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B282" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C282" s="6" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D282" s="6" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="283" ht="14.75" spans="1:4">
+      <c r="A283" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B283" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C283" s="6" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D283" s="6" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="284" ht="14.75" spans="1:4">
+      <c r="A284" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B284" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C284" s="6" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D284" s="6" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="285" ht="14.75" spans="1:4">
+      <c r="A285" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B285" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C285" s="6" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D285" s="6" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="286" ht="14.75" spans="1:4">
+      <c r="A286" s="6" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B286" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C286" s="6" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D286" s="6" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="287" ht="14.75" spans="1:4">
+      <c r="A287" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="B287" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C287" s="6" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D287" s="6" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="288" ht="14.75" spans="1:4">
+      <c r="A288" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="B288" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C288" s="6" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D288" s="6" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="289" ht="14.75" spans="1:4">
+      <c r="A289" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B289" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C289" s="6" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D289" s="6" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="290" ht="14.75" spans="1:4">
+      <c r="A290" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B290" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C290" s="6" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D290" s="6" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="291" ht="14.75" spans="1:4">
+      <c r="A291" s="6" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B291" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C291" s="6" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D291" s="6" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="292" ht="14.75" spans="1:4">
+      <c r="A292" s="6"/>
+      <c r="B292" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C292" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D292" s="6" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="293" ht="14.75" spans="1:4">
+      <c r="A293" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B293" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C293" s="6" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D293" s="6" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="294" ht="14.75" spans="1:4">
+      <c r="A294" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B294" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C294" s="6" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D294" s="6" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="295" ht="14.75" spans="1:4">
+      <c r="A295" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B295" s="6"/>
+      <c r="C295" s="6" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D295" s="6"/>
+    </row>
+    <row r="296" ht="14.75" spans="1:4">
+      <c r="A296" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B296" s="6"/>
+      <c r="C296" s="6" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D296" s="6"/>
+    </row>
+    <row r="297" ht="14.75" spans="1:4">
+      <c r="A297" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B297" s="6"/>
+      <c r="C297" s="6" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D297" s="6"/>
+    </row>
+    <row r="298" ht="14.75" spans="1:4">
+      <c r="A298" s="6" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B298" s="6"/>
+      <c r="C298" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D298" s="6" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="299" ht="14.75" spans="1:4">
+      <c r="A299" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="B299" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C299" s="6" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D299" s="6"/>
+    </row>
+    <row r="300" ht="14.75" spans="1:4">
+      <c r="A300" s="6" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B300" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C300" s="6" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D300" s="6" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="301" ht="14.75" spans="1:4">
+      <c r="A301" s="6" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B301" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C301" s="6" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D301" s="6" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="302" ht="14.75" spans="1:4">
+      <c r="A302" s="6" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B302" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C302" s="6" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D302" s="6" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="303" ht="14.75" spans="1:4">
+      <c r="A303" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B303" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C303" s="6" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D303" s="6" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="304" ht="14.75" spans="1:4">
+      <c r="A304" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B304" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C304" s="6" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D304" s="6" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="305" ht="14.75" spans="1:4">
+      <c r="A305" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B305" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C305" s="6" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D305" s="6" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="306" ht="14.75" spans="1:4">
+      <c r="A306" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B306" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C306" s="6" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D306" s="6" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="307" ht="14.75" spans="1:4">
+      <c r="A307" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B307" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C307" s="6" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D307" s="6" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="308" ht="14.75" spans="1:4">
+      <c r="A308" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B308" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C308" s="6" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D308" s="6" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="309" ht="14.75" spans="1:4">
+      <c r="A309" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B309" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C309" s="6" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D309" s="6" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="310" ht="14.75" spans="1:4">
+      <c r="A310" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B310" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C310" s="6" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D310" s="6" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="311" ht="14.75" spans="1:4">
+      <c r="A311" s="6" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B311" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C311" s="6" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D311" s="6" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="312" ht="14.75" spans="1:4">
+      <c r="A312" s="6" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B312" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C312" s="6" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D312" s="6" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="313" ht="14.75" spans="1:4">
+      <c r="A313" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="B313" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C313" s="6" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D313" s="6" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="314" ht="14.75" spans="1:4">
+      <c r="A314" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="B314" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C314" s="6" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D314" s="6" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="315" ht="14.75" spans="1:4">
+      <c r="A315" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B315" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C315" s="6" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D315" s="6" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="316" ht="14.75" spans="1:4">
+      <c r="A316" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B316" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C316" s="6" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D316" s="6" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="317" ht="14.75" spans="1:4">
+      <c r="A317" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="B317" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C317" s="6" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D317" s="6" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="318" ht="14.75" spans="1:4">
+      <c r="A318" s="6"/>
+      <c r="B318" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C318" s="6" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D318" s="6" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="319" ht="14.75" spans="1:4">
+      <c r="A319" s="6"/>
+      <c r="B319" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C319" s="6" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D319" s="6" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="320" ht="14.75" spans="1:4">
+      <c r="A320" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B320" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C320" s="6" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D320" s="6" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="321" ht="14.75" spans="1:4">
+      <c r="A321" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B321" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C321" s="6" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D321" s="6" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="322" ht="14.75" spans="1:4">
+      <c r="A322" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B322" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C322" s="6" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D322" s="6" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="323" ht="14.75" spans="1:4">
+      <c r="A323" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B323" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C323" s="6" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D323" s="6" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="324" ht="14.75" spans="1:4">
+      <c r="A324" s="6" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B324" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C324" s="6" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D324" s="6" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="325" ht="14.75" spans="1:4">
+      <c r="A325" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B325" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C325" s="6" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D325" s="6" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="326" ht="14.75" spans="1:4">
+      <c r="A326" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B326" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C326" s="6" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D326" s="6" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="327" ht="14.75" spans="1:4">
+      <c r="A327" s="6" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B327" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C327" s="6" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D327" s="6" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="328" ht="14.75" spans="1:4">
+      <c r="A328" s="6"/>
+      <c r="B328" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C328" s="6" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D328" s="6" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="329" ht="14.75" spans="1:4">
+      <c r="A329" s="6"/>
+      <c r="B329" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C329" s="6" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D329" s="6" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="330" ht="14.75" spans="1:4">
+      <c r="A330" s="6" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B330" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C330" s="6" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D330" s="6" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="331" ht="14.75" spans="1:4">
+      <c r="A331" s="6"/>
+      <c r="B331" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C331" s="6" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D331" s="6" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="332" ht="14.75" spans="1:4">
+      <c r="A332" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B332" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C332" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D332" s="6" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="333" ht="14.75" spans="1:4">
+      <c r="A333" s="6"/>
+      <c r="B333" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="C333" s="6" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D333" s="6" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="334" ht="14.75" spans="1:4">
+      <c r="A334" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="B334" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C334" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="D334" s="6" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="335" ht="14.75" spans="1:4">
+      <c r="A335" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="B335" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C335" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="D335" s="6" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="336" ht="14.75" spans="1:4">
+      <c r="A336" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="B336" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C336" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="D336" s="6" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="337" ht="14.75" spans="1:4">
+      <c r="A337" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B337" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C337" s="6" t="s">
+        <v>1766</v>
+      </c>
+      <c r="D337" s="6" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="338" ht="14.75" spans="1:4">
+      <c r="A338" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B338" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C338" s="6" t="s">
+        <v>1766</v>
+      </c>
+      <c r="D338" s="6" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="339" ht="14.75" spans="1:4">
+      <c r="A339" s="6" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B339" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C339" s="6" t="s">
+        <v>1766</v>
+      </c>
+      <c r="D339" s="6" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="340" ht="14.75" spans="1:4">
+      <c r="A340" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B340" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C340" s="6" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D340" s="6" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="341" ht="14.75" spans="1:4">
+      <c r="A341" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B341" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C341" s="6" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D341" s="6" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="342" ht="14.75" spans="1:4">
+      <c r="A342" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B342" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C342" s="6" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D342" s="6" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="343" ht="14.75" spans="1:4">
+      <c r="A343" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B343" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C343" s="6" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D343" s="6" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="344" ht="14.75" spans="1:4">
+      <c r="A344" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B344" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C344" s="6" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D344" s="6" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="345" ht="14.75" spans="1:4">
+      <c r="A345" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B345" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C345" s="6" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D345" s="6" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="346" ht="14.75" spans="1:4">
+      <c r="A346" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B346" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C346" s="6" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D346" s="6" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="347" ht="14.75" spans="1:4">
+      <c r="A347" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B347" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C347" s="6" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D347" s="6" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="348" ht="14.75" spans="1:4">
+      <c r="A348" s="6" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B348" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C348" s="6" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D348" s="6" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="349" ht="14.75" spans="1:4">
+      <c r="A349" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="B349" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C349" s="6" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D349" s="6" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="350" ht="14.75" spans="1:4">
+      <c r="A350" s="6" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B350" s="6"/>
+      <c r="C350" s="6" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D350" s="6" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="351" ht="14.75" spans="1:4">
+      <c r="A351" s="6" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B351" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C351" s="6" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D351" s="6" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="352" ht="14.75" spans="1:4">
+      <c r="A352" s="6" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B352" s="6"/>
+      <c r="C352" s="6" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D352" s="6" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="353" ht="14.75" spans="1:4">
+      <c r="A353" s="6" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B353" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C353" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D353" s="6" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="354" ht="14.75" spans="1:4">
+      <c r="A354" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="B354" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C354" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D354" s="6" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="355" ht="14.75" spans="1:4">
+      <c r="A355" s="6" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B355" s="6"/>
+      <c r="C355" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D355" s="6" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="356" ht="14.75" spans="1:4">
+      <c r="A356" s="6" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B356" s="6"/>
+      <c r="C356" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D356" s="6"/>
+    </row>
+    <row r="357" ht="14.75" spans="1:4">
+      <c r="A357" s="6" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B357" s="6"/>
+      <c r="C357" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D357" s="6"/>
+    </row>
+    <row r="358" ht="14.75" spans="1:4">
+      <c r="A358" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B358" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C358" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D358" s="6" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="359" ht="14.75" spans="1:4">
+      <c r="A359" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B359" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C359" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D359" s="6" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="360" ht="14.75" spans="1:4">
+      <c r="A360" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B360" s="6"/>
+      <c r="C360" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D360" s="6" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="361" ht="14.75" spans="1:4">
+      <c r="A361" s="6" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B361" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C361" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D361" s="6" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="362" ht="14.75" spans="1:4">
+      <c r="A362" s="6" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B362" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C362" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D362" s="6" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="363" ht="14.75" spans="1:4">
+      <c r="A363" s="6" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B363" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C363" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D363" s="6"/>
+    </row>
+    <row r="364" ht="14.75" spans="1:4">
+      <c r="A364" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="B364" s="6"/>
+      <c r="C364" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D364" s="6" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="365" ht="14.75" spans="1:4">
+      <c r="A365" s="6" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B365" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C365" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D365" s="6" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="366" ht="14.75" spans="1:4">
+      <c r="A366" s="6" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B366" s="6"/>
+      <c r="C366" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D366" s="6" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="367" ht="14.75" spans="1:4">
+      <c r="A367" s="6" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B367" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C367" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D367" s="6" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="368" ht="14.75" spans="1:4">
+      <c r="A368" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="B368" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C368" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D368" s="6" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="369" ht="14.75" spans="1:4">
+      <c r="A369" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B369" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C369" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D369" s="6" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="370" ht="14.75" spans="1:4">
+      <c r="A370" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="B370" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C370" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D370" s="6" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="371" ht="14.75" spans="1:4">
+      <c r="A371" s="6" t="s">
+        <v>758</v>
+      </c>
+      <c r="B371" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C371" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D371" s="6" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="372" ht="14.75" spans="1:4">
+      <c r="A372" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B372" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C372" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D372" s="6" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="373" ht="14.75" spans="1:4">
+      <c r="A373" s="6" t="s">
+        <v>758</v>
+      </c>
+      <c r="B373" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C373" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D373" s="6" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="374" ht="14.75" spans="1:4">
+      <c r="A374" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="B374" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C374" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D374" s="6" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="375" ht="14.75" spans="1:4">
+      <c r="A375" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B375" s="6"/>
+      <c r="C375" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D375" s="6" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="376" ht="14.75" spans="1:4">
+      <c r="A376" s="6"/>
+      <c r="B376" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C376" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D376" s="6" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="377" ht="14.75" spans="1:4">
+      <c r="A377" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="B377" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C377" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D377" s="6" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="378" ht="14.75" spans="1:4">
+      <c r="A378" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B378" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C378" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D378" s="6" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="379" ht="14.75" spans="1:4">
+      <c r="A379" s="6" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B379" s="6"/>
+      <c r="C379" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D379" s="6" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="380" ht="14.75" spans="1:4">
+      <c r="A380" s="6" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B380" s="6" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C380" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D380" s="6" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="381" ht="14.75" spans="1:4">
+      <c r="A381" s="6" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B381" s="6" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C381" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D381" s="6" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="382" ht="14.75" spans="1:4">
+      <c r="A382" s="6" t="s">
+        <v>984</v>
+      </c>
+      <c r="B382" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C382" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D382" s="6" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="383" ht="14.75" spans="1:4">
+      <c r="A383" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="B383" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C383" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D383" s="6" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="384" ht="14.75" spans="1:4">
+      <c r="A384" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B384" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C384" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D384" s="6" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="385" ht="14.75" spans="1:4">
+      <c r="A385" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B385" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C385" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D385" s="6" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="386" ht="14.75" spans="1:4">
+      <c r="A386" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B386" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C386" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D386" s="6" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="387" ht="14.75" spans="1:4">
+      <c r="A387" s="6" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B387" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C387" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D387" s="6" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="388" ht="14.75" spans="1:4">
+      <c r="A388" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B388" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C388" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D388" s="6" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="389" ht="14.75" spans="1:4">
+      <c r="A389" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B389" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C389" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D389" s="6" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="390" ht="14.75" spans="1:4">
+      <c r="A390" s="6" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B390" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C390" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D390" s="6" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="391" ht="14.75" spans="1:4">
+      <c r="A391" s="6" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B391" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C391" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D391" s="6" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="392" ht="14.75" spans="1:4">
+      <c r="A392" s="6"/>
+      <c r="B392" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C392" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D392" s="6" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="393" ht="14.75" spans="1:4">
+      <c r="A393" s="6" t="s">
+        <v>737</v>
+      </c>
+      <c r="B393" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C393" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D393" s="6" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="394" ht="14.75" spans="1:4">
+      <c r="A394" s="6" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B394" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C394" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D394" s="6" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="395" ht="14.75" spans="1:4">
+      <c r="A395" s="6" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B395" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C395" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D395" s="6" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="396" ht="14.75" spans="1:4">
+      <c r="A396" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B396" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C396" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D396" s="6" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="397" ht="14.75" spans="1:4">
+      <c r="A397" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B397" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C397" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D397" s="6" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="398" ht="14.75" spans="1:4">
+      <c r="A398" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B398" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C398" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D398" s="6" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="399" ht="14.75" spans="1:4">
+      <c r="A399" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B399" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C399" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D399" s="6" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="400" ht="14.75" spans="1:4">
+      <c r="A400" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B400" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C400" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D400" s="6" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="401" ht="14.75" spans="1:4">
+      <c r="A401" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B401" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C401" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D401" s="6" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="402" ht="14.75" spans="1:4">
+      <c r="A402" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="B402" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C402" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D402" s="6" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="403" ht="14.75" spans="1:4">
+      <c r="A403" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="B403" s="6"/>
+      <c r="C403" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D403" s="6" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="404" ht="14.75" spans="1:4">
+      <c r="A404" s="6"/>
+      <c r="B404" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C404" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D404" s="6" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="405" ht="14.75" spans="1:4">
+      <c r="A405" s="6" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B405" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C405" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D405" s="6" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="406" ht="14.75" spans="1:4">
+      <c r="A406" s="6" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B406" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C406" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D406" s="6" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="407" ht="14.75" spans="1:4">
+      <c r="A407" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="B407" s="6"/>
+      <c r="C407" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D407" s="6" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="408" ht="14.75" spans="1:4">
+      <c r="A408" s="6" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B408" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C408" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D408" s="6" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="409" ht="14.75" spans="1:4">
+      <c r="A409" s="6" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B409" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C409" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D409" s="6" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="410" ht="14.75" spans="1:4">
+      <c r="A410" s="6" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B410" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C410" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D410" s="6" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="411" ht="14.75" spans="1:4">
+      <c r="A411" s="6" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B411" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C411" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D411" s="6" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="412" ht="14.75" spans="1:4">
+      <c r="A412" s="6" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B412" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C412" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D412" s="6" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="413" ht="14.75" spans="1:4">
+      <c r="A413" s="6" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B413" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C413" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D413" s="6" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="414" ht="14.75" spans="1:4">
+      <c r="A414" s="6" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B414" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C414" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D414" s="6" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="415" ht="14.75" spans="1:4">
+      <c r="A415" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B415" s="6"/>
+      <c r="C415" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D415" s="6" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="416" ht="14.75" spans="1:4">
+      <c r="A416" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B416" s="6"/>
+      <c r="C416" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D416" s="6" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="417" ht="14.75" spans="1:4">
+      <c r="A417" s="6" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B417" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C417" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D417" s="6" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="418" ht="14.75" spans="1:4">
+      <c r="A418" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B418" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C418" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D418" s="6" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="419" ht="14.75" spans="1:4">
+      <c r="A419" s="6" t="s">
+        <v>759</v>
+      </c>
+      <c r="B419" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C419" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D419" s="6" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="420" ht="14.75" spans="1:4">
+      <c r="A420" s="6" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B420" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C420" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D420" s="6" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="421" ht="14.75" spans="1:4">
+      <c r="A421" s="6" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B421" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C421" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D421" s="6" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="422" ht="14.75" spans="1:4">
+      <c r="A422" s="6" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B422" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C422" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D422" s="6" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="423" ht="14.75" spans="1:4">
+      <c r="A423" s="6" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B423" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C423" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D423" s="6" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="424" ht="14.75" spans="1:4">
+      <c r="A424" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="B424" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C424" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D424" s="6" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="425" ht="14.75" spans="1:4">
+      <c r="A425" s="6" t="s">
+        <v>765</v>
+      </c>
+      <c r="B425" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C425" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D425" s="6" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="426" ht="14.75" spans="1:4">
+      <c r="A426" s="6" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B426" s="6"/>
+      <c r="C426" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D426" s="6" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="427" ht="14.75" spans="1:4">
+      <c r="A427" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B427" s="6"/>
+      <c r="C427" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D427" s="6" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="428" ht="14.75" spans="1:4">
+      <c r="A428" s="6"/>
+      <c r="B428" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C428" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D428" s="6" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="429" ht="14.75" spans="1:4">
+      <c r="A429" s="6" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B429" s="6"/>
+      <c r="C429" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D429" s="6"/>
+    </row>
+    <row r="430" ht="14.75" spans="1:4">
+      <c r="A430" s="6" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B430" s="6"/>
+      <c r="C430" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D430" s="6" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="431" ht="14.75" spans="1:4">
+      <c r="A431" s="6" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B431" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C431" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D431" s="6" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="432" ht="14.75" spans="1:4">
+      <c r="A432" s="6" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B432" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C432" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D432" s="6" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="433" ht="14.75" spans="1:4">
+      <c r="A433" s="6" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B433" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C433" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D433" s="6" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="434" ht="14.75" spans="1:4">
+      <c r="A434" s="6" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B434" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C434" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D434" s="6" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="435" ht="14.75" spans="1:4">
+      <c r="A435" s="6" t="s">
+        <v>1809</v>
+      </c>
+      <c r="B435" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C435" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D435" s="6" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="436" ht="14.75" spans="1:4">
+      <c r="A436" s="6" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B436" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C436" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D436" s="6" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="437" ht="14.75" spans="1:4">
+      <c r="A437" s="6" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B437" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C437" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D437" s="6" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="438" ht="14.75" spans="1:4">
+      <c r="A438" s="6" t="s">
+        <v>1809</v>
+      </c>
+      <c r="B438" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C438" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D438" s="6" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="439" ht="14.75" spans="1:4">
+      <c r="A439" s="6" t="s">
+        <v>1809</v>
+      </c>
+      <c r="B439" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C439" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D439" s="6" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="440" ht="14.75" spans="1:4">
+      <c r="A440" s="6" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B440" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C440" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D440" s="6" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="441" ht="14.75" spans="1:4">
+      <c r="A441" s="6" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B441" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C441" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D441" s="6" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="442" ht="14.75" spans="1:4">
+      <c r="A442" s="6" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B442" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C442" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D442" s="6" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="443" ht="14.75" spans="1:4">
+      <c r="A443" s="6" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B443" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C443" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D443" s="6" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="444" ht="14.75" spans="1:4">
+      <c r="A444" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="B444" s="6"/>
+      <c r="C444" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D444" s="6" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="445" ht="14.75" spans="1:4">
+      <c r="A445" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="B445" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C445" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D445" s="6" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="446" ht="14.75" spans="1:4">
+      <c r="A446" s="6" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B446" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C446" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D446" s="6" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="447" ht="14.75" spans="1:4">
+      <c r="A447" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="B447" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C447" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D447" s="6" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="448" ht="14.75" spans="1:4">
+      <c r="A448" s="6" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B448" s="6"/>
+      <c r="C448" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D448" s="6" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="449" ht="14.75" spans="1:4">
+      <c r="A449" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="B449" s="6"/>
+      <c r="C449" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D449" s="6" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="450" ht="14.75" spans="1:4">
+      <c r="A450" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="B450" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C450" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D450" s="6" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="451" ht="14.75" spans="1:4">
+      <c r="A451" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="B451" s="6"/>
+      <c r="C451" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D451" s="6" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="452" ht="14.75" spans="1:4">
+      <c r="A452" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="B452" s="6"/>
+      <c r="C452" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D452" s="6" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="453" ht="14.75" spans="1:4">
+      <c r="A453" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="B453" s="6"/>
+      <c r="C453" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D453" s="6" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="454" ht="14.75" spans="1:4">
+      <c r="A454" s="6" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B454" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C454" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D454" s="6" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="455" ht="14.75" spans="1:4">
+      <c r="A455" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B455" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C455" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D455" s="6" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="456" ht="14.75" spans="1:4">
+      <c r="A456" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B456" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C456" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D456" s="6" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="457" ht="14.75" spans="1:4">
+      <c r="A457" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B457" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C457" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D457" s="6" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="458" ht="14.75" spans="1:4">
+      <c r="A458" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B458" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C458" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D458" s="6" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="459" ht="14.75" spans="1:4">
+      <c r="A459" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B459" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C459" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D459" s="6" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="460" ht="14.75" spans="1:4">
+      <c r="A460" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B460" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C460" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D460" s="6" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="461" ht="14.75" spans="1:4">
+      <c r="A461" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="B461" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C461" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D461" s="6" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="462" ht="14.75" spans="1:4">
+      <c r="A462" s="6" t="s">
+        <v>963</v>
+      </c>
+      <c r="B462" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C462" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D462" s="6" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="463" ht="14.75" spans="1:4">
+      <c r="A463" s="6" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B463" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C463" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D463" s="6" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="464" ht="14.75" spans="1:4">
+      <c r="A464" s="6" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B464" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C464" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D464" s="6" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="465" ht="14.75" spans="1:4">
+      <c r="A465" s="6" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B465" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C465" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D465" s="6" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="466" ht="14.75" spans="1:4">
+      <c r="A466" s="6" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B466" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C466" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D466" s="6" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="467" ht="14.75" spans="1:4">
+      <c r="A467" s="6" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B467" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C467" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D467" s="6" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="468" ht="14.75" spans="1:4">
+      <c r="A468" s="6" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B468" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C468" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D468" s="6" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="469" ht="14.75" spans="1:4">
+      <c r="A469" s="6" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B469" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C469" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D469" s="6" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="470" ht="14.75" spans="1:4">
+      <c r="A470" s="6" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B470" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C470" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D470" s="6" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="471" ht="14.75" spans="1:4">
+      <c r="A471" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="B471" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C471" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D471" s="6" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="472" ht="14.75" spans="1:4">
+      <c r="A472" s="6" t="s">
+        <v>800</v>
+      </c>
+      <c r="B472" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C472" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D472" s="6" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="473" ht="27.75" spans="1:4">
+      <c r="A473" s="6" t="s">
+        <v>801</v>
+      </c>
+      <c r="B473" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C473" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D473" s="6" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="474" ht="27.75" spans="1:4">
+      <c r="A474" s="6" t="s">
+        <v>802</v>
+      </c>
+      <c r="B474" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C474" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D474" s="6" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="475" ht="14.75" spans="1:4">
+      <c r="A475" s="6" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B475" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C475" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D475" s="6" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="476" ht="14.75" spans="1:4">
+      <c r="A476" s="6" t="s">
+        <v>1842</v>
+      </c>
+      <c r="B476" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C476" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D476" s="6" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="477" ht="14.75" spans="1:4">
+      <c r="A477" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="B477" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C477" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D477" s="6" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="478" ht="14.75" spans="1:4">
+      <c r="A478" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="B478" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C478" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D478" s="6" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="479" ht="14.75" spans="1:4">
+      <c r="A479" s="6" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B479" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C479" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D479" s="6" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="480" ht="14.75" spans="1:4">
+      <c r="A480" s="6" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B480" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C480" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D480" s="6" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="481" ht="14.75" spans="1:4">
+      <c r="A481" s="6" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B481" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C481" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D481" s="6" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="482" ht="14.75" spans="1:4">
+      <c r="A482" s="6" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B482" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C482" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D482" s="6" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="483" ht="14.75" spans="1:4">
+      <c r="A483" s="6" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B483" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C483" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D483" s="6" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="484" ht="14.75" spans="1:4">
+      <c r="A484" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="B484" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C484" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D484" s="6" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="485" ht="14.75" spans="1:4">
+      <c r="A485" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B485" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C485" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D485" s="6" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="486" ht="14.75" spans="1:4">
+      <c r="A486" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B486" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C486" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D486" s="6" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="487" ht="14.75" spans="1:4">
+      <c r="A487" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="B487" s="6"/>
+      <c r="C487" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D487" s="6" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="488" ht="14.75" spans="1:4">
+      <c r="A488" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B488" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C488" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D488" s="6" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="489" ht="14.75" spans="1:4">
+      <c r="A489" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B489" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C489" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D489" s="6" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="490" ht="14.75" spans="1:4">
+      <c r="A490" s="6"/>
+      <c r="B490" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C490" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D490" s="6" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="491" ht="14.75" spans="1:4">
+      <c r="A491" s="6"/>
+      <c r="B491" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C491" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D491" s="6" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="492" ht="14.75" spans="1:4">
+      <c r="A492" s="6" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B492" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C492" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D492" s="6"/>
+    </row>
+    <row r="493" ht="14.75" spans="1:4">
+      <c r="A493" s="6"/>
+      <c r="B493" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C493" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D493" s="6" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="494" ht="14.75" spans="1:4">
+      <c r="A494" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B494" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C494" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D494" s="6" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="495" ht="14.75" spans="1:4">
+      <c r="A495" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B495" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C495" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D495" s="6" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="496" ht="14.75" spans="1:4">
+      <c r="A496" s="6" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B496" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C496" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D496" s="6" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="497" ht="14.75" spans="1:4">
+      <c r="A497" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B497" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C497" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D497" s="6" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="498" ht="14.75" spans="1:4">
+      <c r="A498" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B498" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C498" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D498" s="6" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="499" ht="14.75" spans="1:4">
+      <c r="A499" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B499" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C499" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D499" s="6" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" display="https://open.wps.cn/previous/docs/client/wpsLoad"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>